--- a/kamuskatabakuupdate2025.xlsx
+++ b/kamuskatabakuupdate2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BAKOM RI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2BD656-9331-46E6-8705-3AA6E2FD1B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D12EA2-9F9D-4B77-8F9D-C9141EB92AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20020,7 +20020,7 @@
   <dimension ref="A1:B4459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D4:D5"/>
+      <selection activeCell="H6" sqref="G5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
